--- a/Cote기록.xlsx
+++ b/Cote기록.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Heetae\source\repos\Studying_Cote\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Heetae\source\repos\Cote\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15D3592D-A94D-452E-A2CE-BB960B1BBA6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FD66178-6199-4D2C-B0F1-B9F814714912}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{D201B5D2-2DDF-4A7B-B11F-7425E7B6E507}"/>
   </bookViews>
@@ -149,10 +149,6 @@
     <t>비밀 코드 해독</t>
   </si>
   <si>
-    <t>`</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>보자마자 포기함.. 공식이 있는건가. 어캐 저게 43이지</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -208,12 +204,27 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>h</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t>처음엔 65.. 검색 에서 partition_point를 활용해야 100 이 될 수 있는 문제. 재밌으면서 유용하다.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 다시 풀어보자</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오픈채팅방</t>
+  </si>
+  <si>
+    <r>
+      <t>string 의 전형적인 문제.</t>
     </r>
     <r>
       <rPr>
@@ -667,17 +678,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3558EF3-1756-4B11-A588-6324C788ED8F}">
-  <dimension ref="A1:I21"/>
+  <dimension ref="A1:I20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="8.6640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="5.58203125" style="8" customWidth="1"/>
-    <col min="3" max="3" width="35.9140625" customWidth="1"/>
+    <col min="3" max="3" width="34.5" customWidth="1"/>
     <col min="4" max="4" width="8.83203125" style="2" customWidth="1"/>
     <col min="5" max="5" width="8.6640625" style="2"/>
     <col min="6" max="6" width="6.4140625" style="12" customWidth="1"/>
@@ -697,7 +708,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E1" s="6" t="s">
         <v>3</v>
@@ -706,18 +717,18 @@
         <v>4</v>
       </c>
       <c r="G1" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="H1" s="4" t="s">
         <v>33</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>34</v>
       </c>
       <c r="I1" s="5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="17.5" thickTop="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="1" t="s">
-        <v>41</v>
+      <c r="A2" s="1">
+        <v>45948</v>
       </c>
       <c r="B2" s="8">
         <v>1</v>
@@ -976,7 +987,7 @@
         <v>60</v>
       </c>
       <c r="H13" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I13" t="s">
         <v>24</v>
@@ -1025,7 +1036,7 @@
         <v>60</v>
       </c>
       <c r="H15" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I15" t="s">
         <v>27</v>
@@ -1051,7 +1062,7 @@
         <v>10</v>
       </c>
       <c r="I16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.45">
@@ -1062,7 +1073,7 @@
         <v>2</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D17" s="2">
         <v>0.45</v>
@@ -1074,10 +1085,10 @@
         <v>40</v>
       </c>
       <c r="H17" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I17" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.45">
@@ -1088,7 +1099,7 @@
         <v>2</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D18" s="2">
         <v>0.35</v>
@@ -1103,10 +1114,10 @@
         <v>25</v>
       </c>
       <c r="H18" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I18" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.45">
@@ -1117,7 +1128,7 @@
         <v>2</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D19" s="2">
         <v>0.42</v>
@@ -1129,9 +1140,27 @@
         <v>40</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="G21" s="8" t="s">
-        <v>29</v>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A20" s="1">
+        <v>45951</v>
+      </c>
+      <c r="B20" s="8">
+        <v>2</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D20" s="2">
+        <v>0.59</v>
+      </c>
+      <c r="E20" s="2">
+        <v>1</v>
+      </c>
+      <c r="F20" s="12">
+        <v>55</v>
+      </c>
+      <c r="I20" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -1155,6 +1184,7 @@
     <hyperlink ref="C17" r:id="rId16" display="https://school.programmers.co.kr/learn/courses/30/lessons/340212" xr:uid="{43057CC7-3965-4AAC-9A08-6E87EDE7A713}"/>
     <hyperlink ref="C18" r:id="rId17" display="https://school.programmers.co.kr/learn/courses/30/lessons/340211" xr:uid="{443964EE-0191-440A-9F6A-9C6905AF23E1}"/>
     <hyperlink ref="C19" r:id="rId18" display="https://school.programmers.co.kr/learn/courses/30/lessons/250136" xr:uid="{CACD8241-B394-4028-880E-8EC0D7B6D172}"/>
+    <hyperlink ref="C20" r:id="rId19" display="https://school.programmers.co.kr/learn/courses/30/lessons/42888" xr:uid="{A10D161B-A6B0-48BE-8717-E6E85E99C661}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Cote기록.xlsx
+++ b/Cote기록.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Heetae\source\repos\Cote\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FD66178-6199-4D2C-B0F1-B9F814714912}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAD006B0-AC6F-44C3-8671-474EE0E22B31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{D201B5D2-2DDF-4A7B-B11F-7425E7B6E507}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$I$35</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -34,26 +37,26 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="71">
   <si>
     <t>날짜</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>레벨</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>제목</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>정답률</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>시간</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>가장 많이 받은 선물</t>
@@ -66,28 +69,28 @@
   </si>
   <si>
     <t>비고</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>[PCCE 기출문제] 9번 / 이웃한 칸</t>
   </si>
   <si>
     <t>뭐지 싶을 정도로 다른 문제와 비교해서 난이도가 낮았다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>[PCCE 기출문제] 10번 / 데이터 분석</t>
   </si>
   <si>
     <t>문제 잘못읽고 + 설계 잘못해서, 2번 갈아엎어서 시간 많이 잡아먹음..</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>달리기 경주</t>
   </si>
   <si>
     <t>처음으로 연산 효율 따지는 문제 봐서, 원인 못찾고 75 받음.. 시간초과 == 효율떨어짐 을 배움</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>추억 점수</t>
@@ -97,11 +100,11 @@
   </si>
   <si>
     <t>게임 연관.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>게임 연관. Block ,공원을 벗어나는지는 연속성으로 보면서, 총이동은 연속성이 아닌 boolean으로 봐서, 예상외로 까다로웠음</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>바탕화면 정리</t>
@@ -120,37 +123,21 @@
   </si>
   <si>
     <t>동적계획법에 대해 알게 해준 문제</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>O</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>지게차와 크레인</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">재방문으로 인한 무한 재귀호출을 잡지 못해서, 아쉽게 100점에서 10점.. 너무 아쉽다. 그런데 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFC00000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>문제는 너무 좋다. 다시 풀어보자</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>비밀 코드 해독</t>
   </si>
   <si>
     <t>보자마자 포기함.. 공식이 있는건가. 어캐 저게 43이지</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>[PCCP 기출문제] 2번 / 퍼즐 게임 챌린지</t>
@@ -158,24 +145,24 @@
   <si>
     <t>평균
  정답률</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>게임
 연관</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>항목</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>검색</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>DP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>[PCCP 기출문제] 3번 / 충돌위험 찾기</t>
@@ -184,24 +171,8 @@
     <t>[PCCP 기출문제] 2번 / 석유 시추</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Update, PhysicsUpdate 가 생각났음. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFC00000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>문제 좋다. 다시 풀어보자</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>컨테이너오퍼레이터</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -217,7 +188,7 @@
       </rPr>
       <t xml:space="preserve"> 다시 풀어보자</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>오픈채팅방</t>
@@ -236,7 +207,203 @@
       </rPr>
       <t xml:space="preserve"> 다시 풀어보자</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>방문 길이</t>
+  </si>
+  <si>
+    <t>괄호 회전하기</t>
+  </si>
+  <si>
+    <t>스택</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>문제 좋다</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>짝지어 제거하기</t>
+  </si>
+  <si>
+    <t>문제 좋다. it erase로 하니 시간초과 나옴. 생성 전에 확인 후 push 하는 방법으로 하니 처리됨(교재참조)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>주식가격</t>
+  </si>
+  <si>
+    <t xml:space="preserve">교재에는 스택 항목에 속한다는데, 그렇게 안풀어도 짧은 코드로 100나왔음.. </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>크레인 인형뽑기 게임</t>
+  </si>
+  <si>
+    <t>표 편집</t>
+  </si>
+  <si>
+    <t>연결리스트</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>다시 풀어보자</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>. 교재는 스택으로 분류했지만, 연결리스트와 더 관련있다. 연결리스트의 구조를 사용해야 100인 문제인데, 유용해보인다 느낄 수도 있지만, Z를 되살릴 때 되살린 노드와 연결된 노드들은 살아있다는 전제의 문제이므로, 생각보다는 사용 가능한 범위가 협소한 것 같다.</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Update, PhysicsUpdate 가 생각났음. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>다시 풀어보자</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">재방문으로 인한 무한 재귀호출을 잡지 못해서, 아쉽게 100점에서 10점.. 너무 아쉽다. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>다시 풀어보자</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>기능개발</t>
+  </si>
+  <si>
+    <t>카드 뭉치</t>
+  </si>
+  <si>
+    <t>완주하지 못한 선수</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">map을 사용하는 기본적인 코드지만, map 정리에 좋다. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>다시 풀어보자</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>영어 끝말잇기</t>
+  </si>
+  <si>
+    <t>전화번호 목록</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">string 의 정렬기준을 이해해야 100 받을 수 있는 문제. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>다시 풀어보자</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>할인 행사</t>
+  </si>
+  <si>
+    <t>베스트앨범</t>
+  </si>
+  <si>
+    <t>신고 결과 받기</t>
+  </si>
+  <si>
+    <t>주차 요금 계산</t>
+  </si>
+  <si>
+    <t>해시</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">해시 컨테이너를 auto 로 받을 때, auto&amp; 와 auto 의 차이를 알게해준 고마운 문제. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>다시 풀어보자</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>메뉴 리뉴얼</t>
+  </si>
+  <si>
+    <t>기타_콤비네이션</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">처음시도 55분 하고 0점. 이후 콤비네이션 코드 공부하고, 45분 걸려 100점. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>다시 풀어보자</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -247,13 +414,20 @@
     <numFmt numFmtId="176" formatCode="yy&quot;-&quot;m&quot;-&quot;d;@"/>
     <numFmt numFmtId="177" formatCode="0_ "/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -316,11 +490,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -342,16 +516,16 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -362,6 +536,9 @@
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -678,10 +855,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3558EF3-1756-4B11-A588-6324C788ED8F}">
-  <dimension ref="A1:I20"/>
+  <dimension ref="A1:I41"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I40" sqref="I40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -694,7 +872,7 @@
     <col min="6" max="6" width="6.4140625" style="12" customWidth="1"/>
     <col min="7" max="7" width="5.4140625" style="8" customWidth="1"/>
     <col min="8" max="8" width="17.5" style="8" customWidth="1"/>
-    <col min="9" max="9" width="108.4140625" customWidth="1"/>
+    <col min="9" max="9" width="144.08203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="32.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
@@ -708,7 +886,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E1" s="6" t="s">
         <v>3</v>
@@ -717,10 +895,10 @@
         <v>4</v>
       </c>
       <c r="G1" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1" s="4" t="s">
         <v>32</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>33</v>
       </c>
       <c r="I1" s="5" t="s">
         <v>8</v>
@@ -987,7 +1165,7 @@
         <v>60</v>
       </c>
       <c r="H13" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I13" t="s">
         <v>24</v>
@@ -1036,10 +1214,10 @@
         <v>60</v>
       </c>
       <c r="H15" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I15" t="s">
-        <v>27</v>
+        <v>54</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.45">
@@ -1050,7 +1228,7 @@
         <v>2</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D16" s="2">
         <v>0.43</v>
@@ -1062,7 +1240,7 @@
         <v>10</v>
       </c>
       <c r="I16" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.45">
@@ -1073,7 +1251,7 @@
         <v>2</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D17" s="2">
         <v>0.45</v>
@@ -1085,10 +1263,10 @@
         <v>40</v>
       </c>
       <c r="H17" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I17" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.45">
@@ -1099,7 +1277,7 @@
         <v>2</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D18" s="2">
         <v>0.35</v>
@@ -1114,10 +1292,10 @@
         <v>25</v>
       </c>
       <c r="H18" s="8" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I18" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.45">
@@ -1128,7 +1306,7 @@
         <v>2</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D19" s="2">
         <v>0.42</v>
@@ -1148,7 +1326,7 @@
         <v>2</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D20" s="2">
         <v>0.59</v>
@@ -1160,11 +1338,394 @@
         <v>55</v>
       </c>
       <c r="I20" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A21" s="1">
+        <v>45951</v>
+      </c>
+      <c r="B21" s="8">
+        <v>2</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D21" s="2">
+        <v>0.64</v>
+      </c>
+      <c r="E21" s="2">
+        <v>1</v>
+      </c>
+      <c r="F21" s="12">
+        <v>30</v>
+      </c>
+      <c r="G21" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A22" s="1">
+        <v>45951</v>
+      </c>
+      <c r="B22" s="8">
+        <v>2</v>
+      </c>
+      <c r="C22" s="7" t="s">
         <v>42</v>
       </c>
+      <c r="D22" s="2">
+        <v>0.69</v>
+      </c>
+      <c r="E22" s="2">
+        <v>1</v>
+      </c>
+      <c r="F22" s="12">
+        <v>44</v>
+      </c>
+      <c r="H22" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="I22" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A23" s="1">
+        <v>45951</v>
+      </c>
+      <c r="B23" s="8">
+        <v>2</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="D23" s="2">
+        <v>0.75</v>
+      </c>
+      <c r="E23" s="2">
+        <v>0.65</v>
+      </c>
+      <c r="F23" s="12">
+        <v>10</v>
+      </c>
+      <c r="H23" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="I23" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A24" s="1">
+        <v>45952</v>
+      </c>
+      <c r="B24" s="8">
+        <v>2</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="D24" s="2">
+        <v>0.62</v>
+      </c>
+      <c r="E24" s="2">
+        <v>1</v>
+      </c>
+      <c r="F24" s="12">
+        <v>10</v>
+      </c>
+      <c r="I24" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A25" s="1">
+        <v>45952</v>
+      </c>
+      <c r="B25" s="8">
+        <v>2</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="D25" s="2">
+        <v>0.54</v>
+      </c>
+      <c r="E25" s="2">
+        <v>1</v>
+      </c>
+      <c r="F25" s="12">
+        <v>20</v>
+      </c>
+      <c r="H25" s="8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A26" s="1">
+        <v>45952</v>
+      </c>
+      <c r="B26" s="8">
+        <v>3</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="D26" s="2">
+        <v>0.41</v>
+      </c>
+      <c r="E26" s="2">
+        <v>0.65</v>
+      </c>
+      <c r="F26" s="12">
+        <v>35</v>
+      </c>
+      <c r="H26" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="I26" s="14" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A27" s="1">
+        <v>45952</v>
+      </c>
+      <c r="B27" s="8">
+        <v>2</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="D27" s="2">
+        <v>0.67</v>
+      </c>
+      <c r="E27" s="2">
+        <v>1</v>
+      </c>
+      <c r="F27" s="12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A28" s="1">
+        <v>45952</v>
+      </c>
+      <c r="B28" s="8">
+        <v>1</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="D28" s="2">
+        <v>0.71</v>
+      </c>
+      <c r="E28" s="2">
+        <v>1</v>
+      </c>
+      <c r="F28" s="12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A29" s="1">
+        <v>45952</v>
+      </c>
+      <c r="B29" s="8">
+        <v>1</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="D29" s="2">
+        <v>0.59</v>
+      </c>
+      <c r="E29" s="2">
+        <v>1</v>
+      </c>
+      <c r="F29" s="12">
+        <v>5</v>
+      </c>
+      <c r="I29" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A30" s="1">
+        <v>45952</v>
+      </c>
+      <c r="B30" s="8">
+        <v>2</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="D30" s="2">
+        <v>0.7</v>
+      </c>
+      <c r="E30" s="2">
+        <v>1</v>
+      </c>
+      <c r="F30" s="12">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A31" s="1">
+        <v>45952</v>
+      </c>
+      <c r="B31" s="8">
+        <v>2</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D31" s="2">
+        <v>0.65</v>
+      </c>
+      <c r="E31" s="2">
+        <v>0.91</v>
+      </c>
+      <c r="F31" s="12">
+        <v>16</v>
+      </c>
+      <c r="I31" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A32" s="1">
+        <v>45952</v>
+      </c>
+      <c r="B32" s="8">
+        <v>2</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="D32" s="2">
+        <v>0.69</v>
+      </c>
+      <c r="E32" s="2">
+        <v>1</v>
+      </c>
+      <c r="F32" s="12">
+        <v>17</v>
+      </c>
+      <c r="H32" s="8" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A33" s="1">
+        <v>45952</v>
+      </c>
+      <c r="B33" s="8">
+        <v>3</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="D33" s="2">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="E33" s="2">
+        <v>1</v>
+      </c>
+      <c r="F33" s="12">
+        <v>27</v>
+      </c>
+      <c r="H33" s="8" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A34" s="1">
+        <v>45952</v>
+      </c>
+      <c r="B34" s="8">
+        <v>1</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="D34" s="2">
+        <v>0.41</v>
+      </c>
+      <c r="E34" s="2">
+        <v>1</v>
+      </c>
+      <c r="F34" s="12">
+        <v>26</v>
+      </c>
+      <c r="H34" s="8" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A35" s="1">
+        <v>45953</v>
+      </c>
+      <c r="B35" s="8">
+        <v>2</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D35" s="2">
+        <v>0.61</v>
+      </c>
+      <c r="E35" s="2">
+        <v>1</v>
+      </c>
+      <c r="F35" s="12">
+        <v>40</v>
+      </c>
+      <c r="H35" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="I35" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A36" s="1">
+        <v>45953</v>
+      </c>
+      <c r="B36" s="8">
+        <v>2</v>
+      </c>
+      <c r="C36" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="D36" s="2">
+        <v>0.52</v>
+      </c>
+      <c r="E36" s="2">
+        <v>0.52</v>
+      </c>
+      <c r="F36" s="12">
+        <v>50</v>
+      </c>
+      <c r="H36" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="I36" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="C39" s="7"/>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="C40" s="7"/>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="C41" s="7"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="C4" r:id="rId1" display="https://school.programmers.co.kr/learn/courses/30/lessons/250137" xr:uid="{135A2BED-FF61-4D90-BA32-36F46CC71A33}"/>
     <hyperlink ref="C3" r:id="rId2" display="https://school.programmers.co.kr/learn/courses/30/lessons/258712" xr:uid="{CC3D4900-8625-4343-A191-3C1D95DF8010}"/>
@@ -1185,6 +1746,22 @@
     <hyperlink ref="C18" r:id="rId17" display="https://school.programmers.co.kr/learn/courses/30/lessons/340211" xr:uid="{443964EE-0191-440A-9F6A-9C6905AF23E1}"/>
     <hyperlink ref="C19" r:id="rId18" display="https://school.programmers.co.kr/learn/courses/30/lessons/250136" xr:uid="{CACD8241-B394-4028-880E-8EC0D7B6D172}"/>
     <hyperlink ref="C20" r:id="rId19" display="https://school.programmers.co.kr/learn/courses/30/lessons/42888" xr:uid="{A10D161B-A6B0-48BE-8717-E6E85E99C661}"/>
+    <hyperlink ref="C21" r:id="rId20" display="https://school.programmers.co.kr/learn/courses/30/lessons/49994" xr:uid="{8D35B01C-04CC-4529-A4EE-AAA216888D37}"/>
+    <hyperlink ref="C22" r:id="rId21" display="https://school.programmers.co.kr/learn/courses/30/lessons/76502" xr:uid="{F303315B-BB23-4457-998A-BAF50FA61F14}"/>
+    <hyperlink ref="C23" r:id="rId22" display="https://school.programmers.co.kr/learn/courses/30/lessons/12973" xr:uid="{77B9764A-B37D-41FD-B52D-94FC18507676}"/>
+    <hyperlink ref="C24" r:id="rId23" display="https://school.programmers.co.kr/learn/courses/30/lessons/42584" xr:uid="{8D5C2882-55F5-41CA-A937-10A83A1D88E5}"/>
+    <hyperlink ref="C25" r:id="rId24" display="https://school.programmers.co.kr/learn/courses/30/lessons/64061" xr:uid="{88E5FF5E-96DE-4C61-A788-BC06FA099AC5}"/>
+    <hyperlink ref="C26" r:id="rId25" display="https://school.programmers.co.kr/learn/courses/30/lessons/81303" xr:uid="{48308246-7679-4C40-AD46-8AF83ED569BB}"/>
+    <hyperlink ref="C27" r:id="rId26" display="https://school.programmers.co.kr/learn/courses/30/lessons/42586" xr:uid="{DC1E222E-C081-45C5-BA99-9037450C6129}"/>
+    <hyperlink ref="C28" r:id="rId27" display="https://school.programmers.co.kr/learn/courses/30/lessons/159994" xr:uid="{FAADC3E3-1DB9-4C19-8EDF-C59D2B03AFD7}"/>
+    <hyperlink ref="C29" r:id="rId28" display="https://school.programmers.co.kr/learn/courses/30/lessons/42576" xr:uid="{59C37D52-D046-46AC-9CE8-3DD3DF8F225A}"/>
+    <hyperlink ref="C30" r:id="rId29" display="https://school.programmers.co.kr/learn/courses/30/lessons/12981" xr:uid="{E6527074-C21E-4E5E-9691-1DF1B2023E2B}"/>
+    <hyperlink ref="C31" r:id="rId30" display="https://school.programmers.co.kr/learn/courses/30/lessons/42577" xr:uid="{CE040394-6EF5-4A7B-8803-0D8010E6CBB3}"/>
+    <hyperlink ref="C32" r:id="rId31" display="https://school.programmers.co.kr/learn/courses/30/lessons/131127" xr:uid="{5D8D0D57-5FCD-49AF-8FCF-178D5CBE7378}"/>
+    <hyperlink ref="C33" r:id="rId32" display="https://school.programmers.co.kr/learn/courses/30/lessons/42579" xr:uid="{CB713FE6-A904-43E8-A68C-84CCC56DDEFA}"/>
+    <hyperlink ref="C34" r:id="rId33" display="https://school.programmers.co.kr/learn/courses/30/lessons/92334" xr:uid="{6AF3FF54-6014-4514-AA9D-C70F7664F370}"/>
+    <hyperlink ref="C35" r:id="rId34" display="https://school.programmers.co.kr/learn/courses/30/lessons/92341" xr:uid="{2FF4247C-FB2E-4004-A36A-D4F3255C3D7D}"/>
+    <hyperlink ref="C36" r:id="rId35" display="https://school.programmers.co.kr/learn/courses/30/lessons/72411" xr:uid="{9394E36C-082E-42E4-A1F9-6DC4A3F987F6}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Cote기록.xlsx
+++ b/Cote기록.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Heetae\source\repos\Cote\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAD006B0-AC6F-44C3-8671-474EE0E22B31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C84F97E0-06D0-48BE-B4E3-69FD202FFF7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{D201B5D2-2DDF-4A7B-B11F-7425E7B6E507}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="77">
   <si>
     <t>날짜</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -392,6 +392,51 @@
   <si>
     <r>
       <t xml:space="preserve">처음시도 55분 하고 0점. 이후 콤비네이션 코드 공부하고, 45분 걸려 100점. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>다시 풀어보자</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>예상 대진표</t>
+  </si>
+  <si>
+    <t>다단계 칫솔 판매</t>
+  </si>
+  <si>
+    <t>트리</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">문제 좋다. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>다시 풀어보자</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>길 찾기 게임</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">55분 풀고 포기후, 교재 보고 따라 적음. 메모리 누수 문제는 없으니, 코테에서 포인터를 남발해도 아무 문제가 없다는 걸 알려준 문제. 매우 어렵지만, </t>
     </r>
     <r>
       <rPr>
@@ -858,8 +903,8 @@
   <dimension ref="A1:I41"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I40" sqref="I40"/>
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I43" sqref="I43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -1715,8 +1760,77 @@
         <v>70</v>
       </c>
     </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A37" s="1">
+        <v>45953</v>
+      </c>
+      <c r="B37" s="8">
+        <v>2</v>
+      </c>
+      <c r="C37" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="D37" s="2">
+        <v>0.7</v>
+      </c>
+      <c r="E37" s="2">
+        <v>1</v>
+      </c>
+      <c r="F37" s="12">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A38" s="1">
+        <v>45953</v>
+      </c>
+      <c r="B38" s="8">
+        <v>3</v>
+      </c>
+      <c r="C38" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="D38" s="2">
+        <v>0.46</v>
+      </c>
+      <c r="E38" s="2">
+        <v>1</v>
+      </c>
+      <c r="F38" s="12">
+        <v>52</v>
+      </c>
+      <c r="H38" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="I38" t="s">
+        <v>74</v>
+      </c>
+    </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="C39" s="7"/>
+      <c r="A39" s="1">
+        <v>45953</v>
+      </c>
+      <c r="B39" s="8">
+        <v>3</v>
+      </c>
+      <c r="C39" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="D39" s="2">
+        <v>0.39</v>
+      </c>
+      <c r="E39" s="2">
+        <v>0</v>
+      </c>
+      <c r="F39" s="12">
+        <v>180</v>
+      </c>
+      <c r="H39" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="I39" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.45">
       <c r="C40" s="7"/>
@@ -1762,7 +1876,11 @@
     <hyperlink ref="C34" r:id="rId33" display="https://school.programmers.co.kr/learn/courses/30/lessons/92334" xr:uid="{6AF3FF54-6014-4514-AA9D-C70F7664F370}"/>
     <hyperlink ref="C35" r:id="rId34" display="https://school.programmers.co.kr/learn/courses/30/lessons/92341" xr:uid="{2FF4247C-FB2E-4004-A36A-D4F3255C3D7D}"/>
     <hyperlink ref="C36" r:id="rId35" display="https://school.programmers.co.kr/learn/courses/30/lessons/72411" xr:uid="{9394E36C-082E-42E4-A1F9-6DC4A3F987F6}"/>
+    <hyperlink ref="C37" r:id="rId36" display="https://school.programmers.co.kr/learn/courses/30/lessons/12985" xr:uid="{485318C0-7DFA-4B2A-B71D-BB2D32DE7EAE}"/>
+    <hyperlink ref="C38" r:id="rId37" display="https://school.programmers.co.kr/learn/courses/30/lessons/77486" xr:uid="{2D066D28-B8A8-4A85-85DB-5D0E92C416AF}"/>
+    <hyperlink ref="C39" r:id="rId38" display="https://school.programmers.co.kr/learn/courses/30/lessons/42892" xr:uid="{494846F9-F11A-49E2-BB78-A21E8955F0B8}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId39"/>
 </worksheet>
 </file>
--- a/Cote기록.xlsx
+++ b/Cote기록.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Heetae\source\repos\Cote\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C84F97E0-06D0-48BE-B4E3-69FD202FFF7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15F8FDB8-0A29-4B59-BFA8-FA0B1060AAD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{D201B5D2-2DDF-4A7B-B11F-7425E7B6E507}"/>
   </bookViews>
@@ -37,26 +37,26 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="83">
   <si>
     <t>날짜</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>레벨</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>제목</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>정답률</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>시간</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>가장 많이 받은 선물</t>
@@ -69,28 +69,28 @@
   </si>
   <si>
     <t>비고</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>[PCCE 기출문제] 9번 / 이웃한 칸</t>
   </si>
   <si>
     <t>뭐지 싶을 정도로 다른 문제와 비교해서 난이도가 낮았다</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>[PCCE 기출문제] 10번 / 데이터 분석</t>
   </si>
   <si>
     <t>문제 잘못읽고 + 설계 잘못해서, 2번 갈아엎어서 시간 많이 잡아먹음..</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>달리기 경주</t>
   </si>
   <si>
     <t>처음으로 연산 효율 따지는 문제 봐서, 원인 못찾고 75 받음.. 시간초과 == 효율떨어짐 을 배움</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>추억 점수</t>
@@ -100,11 +100,11 @@
   </si>
   <si>
     <t>게임 연관.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>게임 연관. Block ,공원을 벗어나는지는 연속성으로 보면서, 총이동은 연속성이 아닌 boolean으로 봐서, 예상외로 까다로웠음</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>바탕화면 정리</t>
@@ -123,11 +123,11 @@
   </si>
   <si>
     <t>동적계획법에 대해 알게 해준 문제</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>O</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>지게차와 크레인</t>
@@ -137,7 +137,7 @@
   </si>
   <si>
     <t>보자마자 포기함.. 공식이 있는건가. 어캐 저게 43이지</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>[PCCP 기출문제] 2번 / 퍼즐 게임 챌린지</t>
@@ -145,24 +145,24 @@
   <si>
     <t>평균
  정답률</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>게임
 연관</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>항목</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>검색</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>DP</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>[PCCP 기출문제] 3번 / 충돌위험 찾기</t>
@@ -172,7 +172,7 @@
   </si>
   <si>
     <t>컨테이너오퍼레이터</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -188,7 +188,7 @@
       </rPr>
       <t xml:space="preserve"> 다시 풀어보자</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>오픈채팅방</t>
@@ -207,7 +207,7 @@
       </rPr>
       <t xml:space="preserve"> 다시 풀어보자</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>방문 길이</t>
@@ -217,25 +217,25 @@
   </si>
   <si>
     <t>스택</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>문제 좋다</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>짝지어 제거하기</t>
   </si>
   <si>
     <t>문제 좋다. it erase로 하니 시간초과 나옴. 생성 전에 확인 후 push 하는 방법으로 하니 처리됨(교재참조)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>주식가격</t>
   </si>
   <si>
     <t xml:space="preserve">교재에는 스택 항목에 속한다는데, 그렇게 안풀어도 짧은 코드로 100나왔음.. </t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>크레인 인형뽑기 게임</t>
@@ -245,7 +245,7 @@
   </si>
   <si>
     <t>연결리스트</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -269,7 +269,7 @@
       </rPr>
       <t>. 교재는 스택으로 분류했지만, 연결리스트와 더 관련있다. 연결리스트의 구조를 사용해야 100인 문제인데, 유용해보인다 느낄 수도 있지만, Z를 되살릴 때 되살린 노드와 연결된 노드들은 살아있다는 전제의 문제이므로, 생각보다는 사용 가능한 범위가 협소한 것 같다.</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -285,7 +285,7 @@
       </rPr>
       <t>다시 풀어보자</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -301,7 +301,7 @@
       </rPr>
       <t>다시 풀어보자</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>기능개발</t>
@@ -326,7 +326,7 @@
       </rPr>
       <t>다시 풀어보자</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>영어 끝말잇기</t>
@@ -348,7 +348,7 @@
       </rPr>
       <t>다시 풀어보자</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>할인 행사</t>
@@ -364,7 +364,7 @@
   </si>
   <si>
     <t>해시</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -380,14 +380,14 @@
       </rPr>
       <t>다시 풀어보자</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>메뉴 리뉴얼</t>
   </si>
   <si>
     <t>기타_콤비네이션</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -403,7 +403,7 @@
       </rPr>
       <t>다시 풀어보자</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>예상 대진표</t>
@@ -413,7 +413,7 @@
   </si>
   <si>
     <t>트리</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -429,7 +429,7 @@
       </rPr>
       <t>다시 풀어보자</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>길 찾기 게임</t>
@@ -448,7 +448,48 @@
       </rPr>
       <t>다시 풀어보자</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>[1차] 캐시</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> LRU(Least Recently Used) 알고리즘을 알아야 100을 낼 수 있는 문제.. 그걸 몰라서 55분 사용하고 65..</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>폰켓몬</t>
+  </si>
+  <si>
+    <t>섬 연결하기</t>
+  </si>
+  <si>
+    <t>집합</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>다시 풀어보자.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 집합 알고리즘 뿐만 아니라, Kruskal 알고리즘 (집합알고리즘의 활용) 까지 이해해야 100임. Kruskal 알고리즘은 비용최소화로 범용적으로 쓰일 수 있으니, 꼭이해</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -459,13 +500,20 @@
     <numFmt numFmtId="176" formatCode="yy&quot;-&quot;m&quot;-&quot;d;@"/>
     <numFmt numFmtId="177" formatCode="0_ "/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -535,11 +583,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -561,16 +609,16 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -581,6 +629,9 @@
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
@@ -900,7 +951,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3558EF3-1756-4B11-A588-6324C788ED8F}">
-  <dimension ref="A1:I41"/>
+  <dimension ref="A1:I42"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
@@ -1833,13 +1884,79 @@
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="C40" s="7"/>
+      <c r="A40" s="1">
+        <v>45954</v>
+      </c>
+      <c r="B40" s="8">
+        <v>2</v>
+      </c>
+      <c r="C40" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="D40" s="2">
+        <v>0.66</v>
+      </c>
+      <c r="E40" s="2">
+        <v>0.65</v>
+      </c>
+      <c r="F40" s="12">
+        <v>55</v>
+      </c>
+      <c r="I40" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="C41" s="7"/>
+      <c r="A41" s="1">
+        <v>45954</v>
+      </c>
+      <c r="B41" s="8">
+        <v>1</v>
+      </c>
+      <c r="C41" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="D41" s="2">
+        <v>0.68</v>
+      </c>
+      <c r="E41" s="2">
+        <v>1</v>
+      </c>
+      <c r="F41" s="12">
+        <v>5</v>
+      </c>
+      <c r="H41" s="8" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A42" s="1">
+        <v>45954</v>
+      </c>
+      <c r="B42" s="8">
+        <v>3</v>
+      </c>
+      <c r="C42" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="D42" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="E42" s="2">
+        <v>0.125</v>
+      </c>
+      <c r="F42" s="12">
+        <v>65</v>
+      </c>
+      <c r="H42" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="I42" s="15" t="s">
+        <v>82</v>
+      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="C4" r:id="rId1" display="https://school.programmers.co.kr/learn/courses/30/lessons/250137" xr:uid="{135A2BED-FF61-4D90-BA32-36F46CC71A33}"/>
     <hyperlink ref="C3" r:id="rId2" display="https://school.programmers.co.kr/learn/courses/30/lessons/258712" xr:uid="{CC3D4900-8625-4343-A191-3C1D95DF8010}"/>
@@ -1879,8 +1996,11 @@
     <hyperlink ref="C37" r:id="rId36" display="https://school.programmers.co.kr/learn/courses/30/lessons/12985" xr:uid="{485318C0-7DFA-4B2A-B71D-BB2D32DE7EAE}"/>
     <hyperlink ref="C38" r:id="rId37" display="https://school.programmers.co.kr/learn/courses/30/lessons/77486" xr:uid="{2D066D28-B8A8-4A85-85DB-5D0E92C416AF}"/>
     <hyperlink ref="C39" r:id="rId38" display="https://school.programmers.co.kr/learn/courses/30/lessons/42892" xr:uid="{494846F9-F11A-49E2-BB78-A21E8955F0B8}"/>
+    <hyperlink ref="C40" r:id="rId39" display="https://school.programmers.co.kr/learn/courses/30/lessons/17680" xr:uid="{BF124CE3-0532-48C8-A288-3B89D251E588}"/>
+    <hyperlink ref="C41" r:id="rId40" display="https://school.programmers.co.kr/learn/courses/30/lessons/1845" xr:uid="{A62B08DD-8249-49E3-AB5C-29C823A31F7E}"/>
+    <hyperlink ref="C42" r:id="rId41" display="https://school.programmers.co.kr/learn/courses/30/lessons/42861" xr:uid="{B3EF16A1-E562-4682-95FC-5BFDC2A5E86E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="landscape" r:id="rId39"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId42"/>
 </worksheet>
 </file>
--- a/Cote기록.xlsx
+++ b/Cote기록.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Heetae\source\repos\Cote\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15F8FDB8-0A29-4B59-BFA8-FA0B1060AAD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4175DE04-C9CB-4730-8CE4-49C9E6506B22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{D201B5D2-2DDF-4A7B-B11F-7425E7B6E507}"/>
   </bookViews>
@@ -37,26 +37,26 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="86">
   <si>
     <t>날짜</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>레벨</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>제목</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>정답률</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>시간</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>가장 많이 받은 선물</t>
@@ -69,28 +69,28 @@
   </si>
   <si>
     <t>비고</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>[PCCE 기출문제] 9번 / 이웃한 칸</t>
   </si>
   <si>
     <t>뭐지 싶을 정도로 다른 문제와 비교해서 난이도가 낮았다</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>[PCCE 기출문제] 10번 / 데이터 분석</t>
   </si>
   <si>
     <t>문제 잘못읽고 + 설계 잘못해서, 2번 갈아엎어서 시간 많이 잡아먹음..</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>달리기 경주</t>
   </si>
   <si>
     <t>처음으로 연산 효율 따지는 문제 봐서, 원인 못찾고 75 받음.. 시간초과 == 효율떨어짐 을 배움</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>추억 점수</t>
@@ -100,11 +100,11 @@
   </si>
   <si>
     <t>게임 연관.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>게임 연관. Block ,공원을 벗어나는지는 연속성으로 보면서, 총이동은 연속성이 아닌 boolean으로 봐서, 예상외로 까다로웠음</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>바탕화면 정리</t>
@@ -123,11 +123,11 @@
   </si>
   <si>
     <t>동적계획법에 대해 알게 해준 문제</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>O</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>지게차와 크레인</t>
@@ -137,7 +137,7 @@
   </si>
   <si>
     <t>보자마자 포기함.. 공식이 있는건가. 어캐 저게 43이지</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>[PCCP 기출문제] 2번 / 퍼즐 게임 챌린지</t>
@@ -145,24 +145,24 @@
   <si>
     <t>평균
  정답률</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>게임
 연관</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>항목</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>검색</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>DP</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>[PCCP 기출문제] 3번 / 충돌위험 찾기</t>
@@ -172,7 +172,7 @@
   </si>
   <si>
     <t>컨테이너오퍼레이터</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -188,7 +188,7 @@
       </rPr>
       <t xml:space="preserve"> 다시 풀어보자</t>
     </r>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>오픈채팅방</t>
@@ -207,7 +207,7 @@
       </rPr>
       <t xml:space="preserve"> 다시 풀어보자</t>
     </r>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>방문 길이</t>
@@ -217,25 +217,25 @@
   </si>
   <si>
     <t>스택</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>문제 좋다</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>짝지어 제거하기</t>
   </si>
   <si>
     <t>문제 좋다. it erase로 하니 시간초과 나옴. 생성 전에 확인 후 push 하는 방법으로 하니 처리됨(교재참조)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>주식가격</t>
   </si>
   <si>
     <t xml:space="preserve">교재에는 스택 항목에 속한다는데, 그렇게 안풀어도 짧은 코드로 100나왔음.. </t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>크레인 인형뽑기 게임</t>
@@ -245,7 +245,7 @@
   </si>
   <si>
     <t>연결리스트</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -269,7 +269,7 @@
       </rPr>
       <t>. 교재는 스택으로 분류했지만, 연결리스트와 더 관련있다. 연결리스트의 구조를 사용해야 100인 문제인데, 유용해보인다 느낄 수도 있지만, Z를 되살릴 때 되살린 노드와 연결된 노드들은 살아있다는 전제의 문제이므로, 생각보다는 사용 가능한 범위가 협소한 것 같다.</t>
     </r>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -285,7 +285,7 @@
       </rPr>
       <t>다시 풀어보자</t>
     </r>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -301,7 +301,7 @@
       </rPr>
       <t>다시 풀어보자</t>
     </r>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>기능개발</t>
@@ -326,7 +326,7 @@
       </rPr>
       <t>다시 풀어보자</t>
     </r>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>영어 끝말잇기</t>
@@ -348,7 +348,7 @@
       </rPr>
       <t>다시 풀어보자</t>
     </r>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>할인 행사</t>
@@ -364,7 +364,7 @@
   </si>
   <si>
     <t>해시</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -380,14 +380,14 @@
       </rPr>
       <t>다시 풀어보자</t>
     </r>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>메뉴 리뉴얼</t>
   </si>
   <si>
     <t>기타_콤비네이션</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -403,7 +403,7 @@
       </rPr>
       <t>다시 풀어보자</t>
     </r>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>예상 대진표</t>
@@ -413,7 +413,7 @@
   </si>
   <si>
     <t>트리</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -429,7 +429,7 @@
       </rPr>
       <t>다시 풀어보자</t>
     </r>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>길 찾기 게임</t>
@@ -448,14 +448,14 @@
       </rPr>
       <t>다시 풀어보자</t>
     </r>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>[1차] 캐시</t>
   </si>
   <si>
     <t xml:space="preserve"> LRU(Least Recently Used) 알고리즘을 알아야 100을 낼 수 있는 문제.. 그걸 몰라서 55분 사용하고 65..</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>폰켓몬</t>
@@ -465,7 +465,7 @@
   </si>
   <si>
     <t>집합</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -489,7 +489,17 @@
       </rPr>
       <t xml:space="preserve"> 집합 알고리즘 뿐만 아니라, Kruskal 알고리즘 (집합알고리즘의 활용) 까지 이해해야 100임. Kruskal 알고리즘은 비용최소화로 범용적으로 쓰일 수 있으니, 꼭이해</t>
     </r>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>미로 탈출</t>
+  </si>
+  <si>
+    <t>그래프</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>게임 맵 최단거리</t>
   </si>
 </sst>
 </file>
@@ -500,13 +510,20 @@
     <numFmt numFmtId="176" formatCode="yy&quot;-&quot;m&quot;-&quot;d;@"/>
     <numFmt numFmtId="177" formatCode="0_ "/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -583,11 +600,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -609,16 +626,16 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -629,6 +646,9 @@
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
@@ -951,11 +971,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3558EF3-1756-4B11-A588-6324C788ED8F}">
-  <dimension ref="A1:I42"/>
+  <dimension ref="A1:I44"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I43" sqref="I43"/>
+      <selection pane="bottomLeft" activeCell="I44" sqref="I44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -1955,8 +1975,55 @@
         <v>82</v>
       </c>
     </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A43" s="1">
+        <v>45955</v>
+      </c>
+      <c r="B43" s="8">
+        <v>2</v>
+      </c>
+      <c r="C43" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="D43" s="2">
+        <v>0.53</v>
+      </c>
+      <c r="E43" s="2">
+        <v>1</v>
+      </c>
+      <c r="F43" s="12">
+        <v>45</v>
+      </c>
+      <c r="H43" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="I43" s="16"/>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A44" s="1">
+        <v>45955</v>
+      </c>
+      <c r="B44" s="8">
+        <v>2</v>
+      </c>
+      <c r="C44" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="D44" s="2">
+        <v>0.64</v>
+      </c>
+      <c r="E44" s="2">
+        <v>0.69</v>
+      </c>
+      <c r="F44" s="12">
+        <v>55</v>
+      </c>
+      <c r="H44" s="8" t="s">
+        <v>84</v>
+      </c>
+    </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="C4" r:id="rId1" display="https://school.programmers.co.kr/learn/courses/30/lessons/250137" xr:uid="{135A2BED-FF61-4D90-BA32-36F46CC71A33}"/>
     <hyperlink ref="C3" r:id="rId2" display="https://school.programmers.co.kr/learn/courses/30/lessons/258712" xr:uid="{CC3D4900-8625-4343-A191-3C1D95DF8010}"/>
@@ -1999,8 +2066,10 @@
     <hyperlink ref="C40" r:id="rId39" display="https://school.programmers.co.kr/learn/courses/30/lessons/17680" xr:uid="{BF124CE3-0532-48C8-A288-3B89D251E588}"/>
     <hyperlink ref="C41" r:id="rId40" display="https://school.programmers.co.kr/learn/courses/30/lessons/1845" xr:uid="{A62B08DD-8249-49E3-AB5C-29C823A31F7E}"/>
     <hyperlink ref="C42" r:id="rId41" display="https://school.programmers.co.kr/learn/courses/30/lessons/42861" xr:uid="{B3EF16A1-E562-4682-95FC-5BFDC2A5E86E}"/>
+    <hyperlink ref="C43" r:id="rId42" display="https://school.programmers.co.kr/learn/courses/30/lessons/159993" xr:uid="{EF7DCB44-4E9E-4B0D-9A92-6BBFA6FBBA07}"/>
+    <hyperlink ref="C44" r:id="rId43" display="https://school.programmers.co.kr/learn/courses/30/lessons/1844" xr:uid="{1D6B101A-DF90-4DC2-8906-72E9C315CE61}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="landscape" r:id="rId42"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId44"/>
 </worksheet>
 </file>
--- a/Cote기록.xlsx
+++ b/Cote기록.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Heetae\source\repos\Cote\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4175DE04-C9CB-4730-8CE4-49C9E6506B22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C9E4CD5-6F3C-44FE-88FB-7C15DBE7FF7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{D201B5D2-2DDF-4A7B-B11F-7425E7B6E507}"/>
   </bookViews>
@@ -37,26 +37,26 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="102">
   <si>
     <t>날짜</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>레벨</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>제목</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>정답률</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>시간</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>가장 많이 받은 선물</t>
@@ -69,28 +69,28 @@
   </si>
   <si>
     <t>비고</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>[PCCE 기출문제] 9번 / 이웃한 칸</t>
   </si>
   <si>
     <t>뭐지 싶을 정도로 다른 문제와 비교해서 난이도가 낮았다</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>[PCCE 기출문제] 10번 / 데이터 분석</t>
   </si>
   <si>
     <t>문제 잘못읽고 + 설계 잘못해서, 2번 갈아엎어서 시간 많이 잡아먹음..</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>달리기 경주</t>
   </si>
   <si>
     <t>처음으로 연산 효율 따지는 문제 봐서, 원인 못찾고 75 받음.. 시간초과 == 효율떨어짐 을 배움</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>추억 점수</t>
@@ -100,11 +100,11 @@
   </si>
   <si>
     <t>게임 연관.</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>게임 연관. Block ,공원을 벗어나는지는 연속성으로 보면서, 총이동은 연속성이 아닌 boolean으로 봐서, 예상외로 까다로웠음</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>바탕화면 정리</t>
@@ -123,11 +123,11 @@
   </si>
   <si>
     <t>동적계획법에 대해 알게 해준 문제</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>O</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>지게차와 크레인</t>
@@ -137,7 +137,7 @@
   </si>
   <si>
     <t>보자마자 포기함.. 공식이 있는건가. 어캐 저게 43이지</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>[PCCP 기출문제] 2번 / 퍼즐 게임 챌린지</t>
@@ -145,24 +145,24 @@
   <si>
     <t>평균
  정답률</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>게임
 연관</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>항목</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>검색</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>DP</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>[PCCP 기출문제] 3번 / 충돌위험 찾기</t>
@@ -172,7 +172,7 @@
   </si>
   <si>
     <t>컨테이너오퍼레이터</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -188,7 +188,7 @@
       </rPr>
       <t xml:space="preserve"> 다시 풀어보자</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>오픈채팅방</t>
@@ -207,7 +207,7 @@
       </rPr>
       <t xml:space="preserve"> 다시 풀어보자</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>방문 길이</t>
@@ -217,25 +217,25 @@
   </si>
   <si>
     <t>스택</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>문제 좋다</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>짝지어 제거하기</t>
   </si>
   <si>
     <t>문제 좋다. it erase로 하니 시간초과 나옴. 생성 전에 확인 후 push 하는 방법으로 하니 처리됨(교재참조)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>주식가격</t>
   </si>
   <si>
     <t xml:space="preserve">교재에는 스택 항목에 속한다는데, 그렇게 안풀어도 짧은 코드로 100나왔음.. </t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>크레인 인형뽑기 게임</t>
@@ -245,7 +245,7 @@
   </si>
   <si>
     <t>연결리스트</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -269,7 +269,7 @@
       </rPr>
       <t>. 교재는 스택으로 분류했지만, 연결리스트와 더 관련있다. 연결리스트의 구조를 사용해야 100인 문제인데, 유용해보인다 느낄 수도 있지만, Z를 되살릴 때 되살린 노드와 연결된 노드들은 살아있다는 전제의 문제이므로, 생각보다는 사용 가능한 범위가 협소한 것 같다.</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -285,7 +285,7 @@
       </rPr>
       <t>다시 풀어보자</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -301,7 +301,7 @@
       </rPr>
       <t>다시 풀어보자</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>기능개발</t>
@@ -326,7 +326,7 @@
       </rPr>
       <t>다시 풀어보자</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>영어 끝말잇기</t>
@@ -348,7 +348,7 @@
       </rPr>
       <t>다시 풀어보자</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>할인 행사</t>
@@ -364,7 +364,7 @@
   </si>
   <si>
     <t>해시</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -380,14 +380,14 @@
       </rPr>
       <t>다시 풀어보자</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>메뉴 리뉴얼</t>
   </si>
   <si>
     <t>기타_콤비네이션</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -403,7 +403,7 @@
       </rPr>
       <t>다시 풀어보자</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>예상 대진표</t>
@@ -413,7 +413,7 @@
   </si>
   <si>
     <t>트리</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -429,7 +429,7 @@
       </rPr>
       <t>다시 풀어보자</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>길 찾기 게임</t>
@@ -448,14 +448,14 @@
       </rPr>
       <t>다시 풀어보자</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>[1차] 캐시</t>
   </si>
   <si>
     <t xml:space="preserve"> LRU(Least Recently Used) 알고리즘을 알아야 100을 낼 수 있는 문제.. 그걸 몰라서 55분 사용하고 65..</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>폰켓몬</t>
@@ -465,7 +465,7 @@
   </si>
   <si>
     <t>집합</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -489,17 +489,153 @@
       </rPr>
       <t xml:space="preserve"> 집합 알고리즘 뿐만 아니라, Kruskal 알고리즘 (집합알고리즘의 활용) 까지 이해해야 100임. Kruskal 알고리즘은 비용최소화로 범용적으로 쓰일 수 있으니, 꼭이해</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>미로 탈출</t>
   </si>
   <si>
     <t>그래프</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>게임 맵 최단거리</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>다시풀어보자</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>. 게임 네브메시 연관</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>네트워크</t>
+  </si>
+  <si>
+    <t>양과 늑대</t>
+  </si>
+  <si>
+    <t>백트래킹</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">다시 풀어보자 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>이 문제를 백트래킹을 공부하지 않은 상태에서 만났는데, 이걸 백트래킹 모르면서 사람머리로 구현이 가능한건가.. 아무튼 양과늑대는 유명하니, 패턴 익히자</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>배달</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>다시 풀어보자</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 전형적인 다익스트라 문제</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">다시 풀어보자 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>집합 패턴 헷갈리면 안된다</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>경주로 건설</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>다시 풀어보</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>자 Bfs 의 다차원 확장버전 유형으로, 단순 최단거리가 아닌, 조건이 생길 때 사용할 수 있는 Bfs의 다차원 확장버전</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>전력망을 둘로 나누기</t>
+  </si>
+  <si>
+    <t>피로도</t>
+  </si>
+  <si>
+    <t>N-Queen</t>
+  </si>
+  <si>
+    <t>양궁대회</t>
+  </si>
+  <si>
+    <t>80분하고 0점맞고 쉬었다가, 다시 30분 해서 100 나오긴 했음. 근데 이게 왜 백트래킹이지.. nHr 알고리즘만 배움</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>외벽 점검</t>
   </si>
 </sst>
 </file>
@@ -510,13 +646,34 @@
     <numFmt numFmtId="176" formatCode="yy&quot;-&quot;m&quot;-&quot;d;@"/>
     <numFmt numFmtId="177" formatCode="0_ "/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -563,6 +720,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -600,11 +764,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -626,16 +790,16 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -647,13 +811,22 @@
     <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -971,11 +1144,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3558EF3-1756-4B11-A588-6324C788ED8F}">
-  <dimension ref="A1:I44"/>
+  <dimension ref="A1:I53"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I44" sqref="I44"/>
+      <selection pane="bottomLeft" activeCell="H53" sqref="H53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -1994,10 +2167,15 @@
       <c r="F43" s="12">
         <v>45</v>
       </c>
+      <c r="G43" s="8" t="s">
+        <v>25</v>
+      </c>
       <c r="H43" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="I43" s="16"/>
+      <c r="I43" s="16" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A44" s="1">
@@ -2018,12 +2196,240 @@
       <c r="F44" s="12">
         <v>55</v>
       </c>
+      <c r="G44" s="8" t="s">
+        <v>25</v>
+      </c>
       <c r="H44" s="8" t="s">
         <v>84</v>
       </c>
+      <c r="I44" s="16" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A45" s="1">
+        <v>45956</v>
+      </c>
+      <c r="B45" s="8">
+        <v>3</v>
+      </c>
+      <c r="C45" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="D45" s="2">
+        <v>0.63</v>
+      </c>
+      <c r="E45" s="2">
+        <v>1</v>
+      </c>
+      <c r="F45" s="12">
+        <v>40</v>
+      </c>
+      <c r="G45" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="H45" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="I45" s="17" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A46" s="1">
+        <v>45956</v>
+      </c>
+      <c r="B46" s="8">
+        <v>3</v>
+      </c>
+      <c r="C46" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="D46" s="2">
+        <v>0.41</v>
+      </c>
+      <c r="E46" s="2">
+        <v>0</v>
+      </c>
+      <c r="F46" s="12">
+        <v>55</v>
+      </c>
+      <c r="H46" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="I46" s="17" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A47" s="1">
+        <v>45956</v>
+      </c>
+      <c r="B47" s="8">
+        <v>2</v>
+      </c>
+      <c r="C47" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="D47" s="2">
+        <v>0.52</v>
+      </c>
+      <c r="E47" s="2">
+        <v>1</v>
+      </c>
+      <c r="F47" s="12">
+        <v>35</v>
+      </c>
+      <c r="H47" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="I47" s="18" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A48" s="1">
+        <v>45956</v>
+      </c>
+      <c r="B48" s="8">
+        <v>3</v>
+      </c>
+      <c r="C48" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="D48" s="2">
+        <v>0.48</v>
+      </c>
+      <c r="E48" s="2">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="F48" s="12">
+        <v>48</v>
+      </c>
+      <c r="H48" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="I48" s="19" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A49" s="1">
+        <v>45957</v>
+      </c>
+      <c r="B49" s="8">
+        <v>2</v>
+      </c>
+      <c r="C49" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="D49" s="2">
+        <v>0.54</v>
+      </c>
+      <c r="E49" s="2">
+        <v>1</v>
+      </c>
+      <c r="F49" s="12">
+        <v>40</v>
+      </c>
+      <c r="H49" s="8" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A50" s="1">
+        <v>45962</v>
+      </c>
+      <c r="B50" s="8">
+        <v>2</v>
+      </c>
+      <c r="C50" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="D50" s="2">
+        <v>0.67</v>
+      </c>
+      <c r="E50" s="2">
+        <v>1</v>
+      </c>
+      <c r="F50" s="12">
+        <v>60</v>
+      </c>
+      <c r="H50" s="8" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A51" s="1">
+        <v>45962</v>
+      </c>
+      <c r="B51" s="8">
+        <v>2</v>
+      </c>
+      <c r="C51" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="D51" s="2">
+        <v>0.41</v>
+      </c>
+      <c r="E51" s="2">
+        <v>1</v>
+      </c>
+      <c r="F51" s="12">
+        <v>85</v>
+      </c>
+      <c r="H51" s="8" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A52" s="1">
+        <v>45963</v>
+      </c>
+      <c r="B52" s="8">
+        <v>2</v>
+      </c>
+      <c r="C52" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="D52" s="2">
+        <v>0.39</v>
+      </c>
+      <c r="E52" s="2">
+        <v>0</v>
+      </c>
+      <c r="F52" s="12">
+        <v>85</v>
+      </c>
+      <c r="I52" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A53" s="1">
+        <v>45963</v>
+      </c>
+      <c r="B53" s="8">
+        <v>3</v>
+      </c>
+      <c r="C53" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="D53" s="2">
+        <v>0.33</v>
+      </c>
+      <c r="E53" s="2">
+        <v>0.96</v>
+      </c>
+      <c r="F53" s="12">
+        <v>80</v>
+      </c>
+      <c r="H53" s="8" t="s">
+        <v>89</v>
+      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="7" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="C4" r:id="rId1" display="https://school.programmers.co.kr/learn/courses/30/lessons/250137" xr:uid="{135A2BED-FF61-4D90-BA32-36F46CC71A33}"/>
     <hyperlink ref="C3" r:id="rId2" display="https://school.programmers.co.kr/learn/courses/30/lessons/258712" xr:uid="{CC3D4900-8625-4343-A191-3C1D95DF8010}"/>
@@ -2068,8 +2474,17 @@
     <hyperlink ref="C42" r:id="rId41" display="https://school.programmers.co.kr/learn/courses/30/lessons/42861" xr:uid="{B3EF16A1-E562-4682-95FC-5BFDC2A5E86E}"/>
     <hyperlink ref="C43" r:id="rId42" display="https://school.programmers.co.kr/learn/courses/30/lessons/159993" xr:uid="{EF7DCB44-4E9E-4B0D-9A92-6BBFA6FBBA07}"/>
     <hyperlink ref="C44" r:id="rId43" display="https://school.programmers.co.kr/learn/courses/30/lessons/1844" xr:uid="{1D6B101A-DF90-4DC2-8906-72E9C315CE61}"/>
+    <hyperlink ref="C45" r:id="rId44" display="https://school.programmers.co.kr/learn/courses/30/lessons/43162" xr:uid="{9F4637F1-4D4F-49F6-8AED-9E5E64ACC68C}"/>
+    <hyperlink ref="C46" r:id="rId45" display="https://school.programmers.co.kr/learn/courses/30/lessons/92343" xr:uid="{6C92BEF1-B04B-4BB3-82E2-DBAF2E965C05}"/>
+    <hyperlink ref="C47" r:id="rId46" display="https://school.programmers.co.kr/learn/courses/30/lessons/12978" xr:uid="{78566C67-83FB-4B3F-A4C6-9C094BADBF7E}"/>
+    <hyperlink ref="C48" r:id="rId47" display="https://school.programmers.co.kr/learn/courses/30/lessons/67259" xr:uid="{D20BB7FA-53A1-4EB4-AB27-C21CF6DECA28}"/>
+    <hyperlink ref="C49" r:id="rId48" display="https://school.programmers.co.kr/learn/courses/30/lessons/86971" xr:uid="{062527E8-B45E-4804-B5DC-0B2E81D3CECE}"/>
+    <hyperlink ref="C50" r:id="rId49" display="https://school.programmers.co.kr/learn/courses/30/lessons/87946" xr:uid="{E9A68733-2AAF-4E7E-9C13-32F98B911EB8}"/>
+    <hyperlink ref="C51" r:id="rId50" display="https://school.programmers.co.kr/learn/courses/30/lessons/12952" xr:uid="{47F62648-BDC6-4F9D-96AE-F21A65FDB343}"/>
+    <hyperlink ref="C52" r:id="rId51" display="https://school.programmers.co.kr/learn/courses/30/lessons/92342" xr:uid="{C64C8C77-63D3-485B-804B-E0AC3C0BDAB3}"/>
+    <hyperlink ref="C53" r:id="rId52" display="https://school.programmers.co.kr/learn/courses/30/lessons/60062" xr:uid="{471C24A0-D245-450C-8BFD-4724DB1C36AB}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="landscape" r:id="rId44"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId53"/>
 </worksheet>
 </file>
--- a/Cote기록.xlsx
+++ b/Cote기록.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Heetae\source\repos\Cote\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C9E4CD5-6F3C-44FE-88FB-7C15DBE7FF7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07317C20-0B80-4C7A-A764-6C7F18BC6184}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{D201B5D2-2DDF-4A7B-B11F-7425E7B6E507}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="111">
   <si>
     <t>날짜</t>
     <phoneticPr fontId="7" type="noConversion"/>
@@ -636,6 +636,37 @@
   </si>
   <si>
     <t>외벽 점검</t>
+  </si>
+  <si>
+    <t>문자열 내 마음대로 정렬하기</t>
+  </si>
+  <si>
+    <t>정렬</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>sort + compare(람다) 로 풀리더라.. 이걸 몰라서 정렬 쓰다가 실패했음..</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>정수 내림차순으로 배치하기</t>
+  </si>
+  <si>
+    <t>sort + compare 로 풀림</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>K번째수</t>
+  </si>
+  <si>
+    <t>가장 큰 수</t>
+  </si>
+  <si>
+    <t>sort + compare 로 풀림. 35분 고민하고 0점. 답안 보고 풀었는데, 이게 사람 머리로 가능한 풀이인가.. 신기하네. 이미 패턴을 알고 있는 건가</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>튜플</t>
   </si>
 </sst>
 </file>
@@ -1144,11 +1175,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3558EF3-1756-4B11-A588-6324C788ED8F}">
-  <dimension ref="A1:I53"/>
+  <dimension ref="A1:I58"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H53" sqref="H53"/>
+      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I58" sqref="I58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -2426,6 +2457,136 @@
       </c>
       <c r="H53" s="8" t="s">
         <v>89</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A54" s="1">
+        <v>45964</v>
+      </c>
+      <c r="B54" s="8">
+        <v>1</v>
+      </c>
+      <c r="C54" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="D54" s="2">
+        <v>0.72</v>
+      </c>
+      <c r="E54" s="2">
+        <v>0</v>
+      </c>
+      <c r="F54" s="12">
+        <v>15</v>
+      </c>
+      <c r="H54" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="I54" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A55" s="1">
+        <v>45964</v>
+      </c>
+      <c r="B55" s="8">
+        <v>1</v>
+      </c>
+      <c r="C55" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="D55" s="2">
+        <v>0.88</v>
+      </c>
+      <c r="E55" s="2">
+        <v>1</v>
+      </c>
+      <c r="F55" s="12">
+        <v>17</v>
+      </c>
+      <c r="H55" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="I55" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A56" s="1">
+        <v>45964</v>
+      </c>
+      <c r="B56" s="8">
+        <v>1</v>
+      </c>
+      <c r="C56" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="D56" s="2">
+        <v>0.73</v>
+      </c>
+      <c r="E56" s="2">
+        <v>1</v>
+      </c>
+      <c r="F56" s="12">
+        <v>6</v>
+      </c>
+      <c r="H56" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="I56" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A57" s="1">
+        <v>45964</v>
+      </c>
+      <c r="B57" s="8">
+        <v>2</v>
+      </c>
+      <c r="C57" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="D57" s="2">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="E57" s="2">
+        <v>0</v>
+      </c>
+      <c r="F57" s="12">
+        <v>35</v>
+      </c>
+      <c r="H57" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="I57" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A58" s="1">
+        <v>45964</v>
+      </c>
+      <c r="B58" s="8">
+        <v>2</v>
+      </c>
+      <c r="C58" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="D58" s="2">
+        <v>0.65</v>
+      </c>
+      <c r="E58" s="2">
+        <v>1</v>
+      </c>
+      <c r="F58" s="12">
+        <v>29</v>
+      </c>
+      <c r="H58" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="I58" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>
@@ -2483,8 +2644,13 @@
     <hyperlink ref="C51" r:id="rId50" display="https://school.programmers.co.kr/learn/courses/30/lessons/12952" xr:uid="{47F62648-BDC6-4F9D-96AE-F21A65FDB343}"/>
     <hyperlink ref="C52" r:id="rId51" display="https://school.programmers.co.kr/learn/courses/30/lessons/92342" xr:uid="{C64C8C77-63D3-485B-804B-E0AC3C0BDAB3}"/>
     <hyperlink ref="C53" r:id="rId52" display="https://school.programmers.co.kr/learn/courses/30/lessons/60062" xr:uid="{471C24A0-D245-450C-8BFD-4724DB1C36AB}"/>
+    <hyperlink ref="C54" r:id="rId53" display="https://school.programmers.co.kr/learn/courses/30/lessons/12915" xr:uid="{45493BDA-ECD7-40B7-8A14-C2A41A2414ED}"/>
+    <hyperlink ref="C55" r:id="rId54" display="https://school.programmers.co.kr/learn/courses/30/lessons/12933" xr:uid="{8418CA53-789A-41C3-9C8D-5B59FB112AB4}"/>
+    <hyperlink ref="C56" r:id="rId55" display="https://school.programmers.co.kr/learn/courses/30/lessons/42748" xr:uid="{2D3051A6-E667-490A-BC6D-86C0F9E77B07}"/>
+    <hyperlink ref="C57" r:id="rId56" display="https://school.programmers.co.kr/learn/courses/30/lessons/42746" xr:uid="{87F3D662-1B41-483C-8FB4-60BA438E1DDF}"/>
+    <hyperlink ref="C58" r:id="rId57" display="https://school.programmers.co.kr/learn/courses/30/lessons/64065" xr:uid="{074AD83B-C5A6-4297-9DDA-EF5E59FEDF64}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="landscape" r:id="rId53"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId58"/>
 </worksheet>
 </file>
--- a/Cote기록.xlsx
+++ b/Cote기록.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Heetae\source\repos\Cote\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07317C20-0B80-4C7A-A764-6C7F18BC6184}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC090D10-6CC0-4D63-B308-C8E795D4683E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{D201B5D2-2DDF-4A7B-B11F-7425E7B6E507}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="126">
   <si>
     <t>날짜</t>
     <phoneticPr fontId="7" type="noConversion"/>
@@ -667,6 +667,66 @@
   </si>
   <si>
     <t>튜플</t>
+  </si>
+  <si>
+    <t>이진 변환 반복하기</t>
+  </si>
+  <si>
+    <t>롤케이크 자르기</t>
+  </si>
+  <si>
+    <t>카펫</t>
+  </si>
+  <si>
+    <t>점프와 순간 이동</t>
+  </si>
+  <si>
+    <t>캐릭터의 좌표</t>
+  </si>
+  <si>
+    <t>피보나치 수</t>
+  </si>
+  <si>
+    <t>% 1234567 을 미리 했어야 했구나</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>2 x n 타일링</t>
+  </si>
+  <si>
+    <t xml:space="preserve">이걸 어떤사람이 nHr 로 접근(이러면 오버플로로 0점나옴) 하지 않고 DP로 접근하냐. DP 접근법은 이해 포기했다. 그냥 답 따라 적음. </t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>정수 삼각형</t>
+  </si>
+  <si>
+    <t>땅따먹기</t>
+  </si>
+  <si>
+    <t>도둑질</t>
+  </si>
+  <si>
+    <t>가장 큰 정사각형 찾기</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">이걸 사람 머리로 직접 풀 수 있나.. 신기하네. 패턴은 유용해보인다. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>다시 풀어보자</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>단어 퍼즐</t>
   </si>
 </sst>
 </file>
@@ -1175,11 +1235,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3558EF3-1756-4B11-A588-6324C788ED8F}">
-  <dimension ref="A1:I58"/>
+  <dimension ref="A1:I70"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I58" sqref="I58"/>
+      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I71" sqref="I71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -2587,6 +2647,276 @@
       </c>
       <c r="I58" t="s">
         <v>106</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A59" s="1">
+        <v>45964</v>
+      </c>
+      <c r="B59" s="8">
+        <v>2</v>
+      </c>
+      <c r="C59" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="D59" s="2">
+        <v>0.78</v>
+      </c>
+      <c r="E59" s="2">
+        <v>1</v>
+      </c>
+      <c r="F59" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A60" s="1">
+        <v>45964</v>
+      </c>
+      <c r="B60" s="8">
+        <v>2</v>
+      </c>
+      <c r="C60" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="D60" s="2">
+        <v>0.65</v>
+      </c>
+      <c r="E60" s="2">
+        <v>1</v>
+      </c>
+      <c r="F60" s="12">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A61" s="1">
+        <v>45964</v>
+      </c>
+      <c r="B61" s="8">
+        <v>2</v>
+      </c>
+      <c r="C61" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="D61" s="2">
+        <v>0.73</v>
+      </c>
+      <c r="E61" s="2">
+        <v>1</v>
+      </c>
+      <c r="F61" s="12">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A62" s="1">
+        <v>45964</v>
+      </c>
+      <c r="B62" s="8">
+        <v>2</v>
+      </c>
+      <c r="C62" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="D62" s="2">
+        <v>0.71</v>
+      </c>
+      <c r="E62" s="2">
+        <v>1</v>
+      </c>
+      <c r="F62" s="12">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A63" s="1">
+        <v>45964</v>
+      </c>
+      <c r="B63" s="8">
+        <v>0</v>
+      </c>
+      <c r="C63" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="D63" s="2">
+        <v>0.79</v>
+      </c>
+      <c r="E63" s="2">
+        <v>1</v>
+      </c>
+      <c r="F63" s="12">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A64" s="1">
+        <v>45964</v>
+      </c>
+      <c r="B64" s="8">
+        <v>2</v>
+      </c>
+      <c r="C64" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="D64" s="2">
+        <v>0.75</v>
+      </c>
+      <c r="E64" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="F64" s="12">
+        <v>8</v>
+      </c>
+      <c r="H64" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="I64" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A65" s="1">
+        <v>45965</v>
+      </c>
+      <c r="B65" s="8">
+        <v>2</v>
+      </c>
+      <c r="C65" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="D65" s="2">
+        <v>0.59</v>
+      </c>
+      <c r="E65" s="2">
+        <v>0</v>
+      </c>
+      <c r="F65" s="12">
+        <v>40</v>
+      </c>
+      <c r="H65" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="I65" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A66" s="1">
+        <v>45965</v>
+      </c>
+      <c r="B66" s="8">
+        <v>3</v>
+      </c>
+      <c r="C66" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="D66" s="2">
+        <v>0.63</v>
+      </c>
+      <c r="E66" s="2">
+        <v>1</v>
+      </c>
+      <c r="F66" s="12">
+        <v>22</v>
+      </c>
+      <c r="H66" s="8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A67" s="1">
+        <v>45965</v>
+      </c>
+      <c r="B67" s="8">
+        <v>2</v>
+      </c>
+      <c r="C67" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="D67" s="2">
+        <v>0.62</v>
+      </c>
+      <c r="E67" s="2">
+        <v>1</v>
+      </c>
+      <c r="F67" s="12">
+        <v>9</v>
+      </c>
+      <c r="H67" s="8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A68" s="1">
+        <v>45965</v>
+      </c>
+      <c r="B68" s="8">
+        <v>4</v>
+      </c>
+      <c r="C68" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="D68" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="E68" s="2">
+        <v>1</v>
+      </c>
+      <c r="F68" s="12">
+        <v>50</v>
+      </c>
+      <c r="H68" s="8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A69" s="1">
+        <v>45965</v>
+      </c>
+      <c r="B69" s="8">
+        <v>2</v>
+      </c>
+      <c r="C69" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="D69" s="2">
+        <v>0.47</v>
+      </c>
+      <c r="E69" s="2">
+        <v>0</v>
+      </c>
+      <c r="F69" s="12">
+        <v>30</v>
+      </c>
+      <c r="H69" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="I69" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A70" s="1">
+        <v>45965</v>
+      </c>
+      <c r="B70" s="8">
+        <v>4</v>
+      </c>
+      <c r="C70" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="D70" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="E70" s="2">
+        <v>0.59399999999999997</v>
+      </c>
+      <c r="F70" s="12">
+        <v>50</v>
+      </c>
+      <c r="H70" s="8" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -2649,8 +2979,20 @@
     <hyperlink ref="C56" r:id="rId55" display="https://school.programmers.co.kr/learn/courses/30/lessons/42748" xr:uid="{2D3051A6-E667-490A-BC6D-86C0F9E77B07}"/>
     <hyperlink ref="C57" r:id="rId56" display="https://school.programmers.co.kr/learn/courses/30/lessons/42746" xr:uid="{87F3D662-1B41-483C-8FB4-60BA438E1DDF}"/>
     <hyperlink ref="C58" r:id="rId57" display="https://school.programmers.co.kr/learn/courses/30/lessons/64065" xr:uid="{074AD83B-C5A6-4297-9DDA-EF5E59FEDF64}"/>
+    <hyperlink ref="C59" r:id="rId58" display="https://school.programmers.co.kr/learn/courses/30/lessons/70129" xr:uid="{1E8D1980-56EA-495F-A01C-EC97735D4A50}"/>
+    <hyperlink ref="C60" r:id="rId59" display="https://school.programmers.co.kr/learn/courses/30/lessons/132265" xr:uid="{9D9E0A11-173D-41A1-8CB9-45B9AA04F700}"/>
+    <hyperlink ref="C61" r:id="rId60" display="https://school.programmers.co.kr/learn/courses/30/lessons/42842" xr:uid="{EDEFC5DE-F5A5-4064-B9BD-EB987C50BC03}"/>
+    <hyperlink ref="C62" r:id="rId61" display="https://school.programmers.co.kr/learn/courses/30/lessons/12980" xr:uid="{2AFB8CC6-C2B8-4348-8496-0210AEA75C44}"/>
+    <hyperlink ref="C63" r:id="rId62" display="https://school.programmers.co.kr/learn/courses/30/lessons/120861" xr:uid="{173C2CBB-DAE7-4ABE-80AD-E49B007473A4}"/>
+    <hyperlink ref="C64" r:id="rId63" display="https://school.programmers.co.kr/learn/courses/30/lessons/12945" xr:uid="{863E3F83-3BB8-49EC-A7E6-43F8E4758477}"/>
+    <hyperlink ref="C65" r:id="rId64" display="https://school.programmers.co.kr/learn/courses/30/lessons/12900" xr:uid="{34A5718E-225A-4E6C-A83F-EB644ECF28AF}"/>
+    <hyperlink ref="C66" r:id="rId65" display="https://school.programmers.co.kr/learn/courses/30/lessons/43105" xr:uid="{B9AD3D6E-5931-495B-AF8A-04C47D70F529}"/>
+    <hyperlink ref="C67" r:id="rId66" display="https://school.programmers.co.kr/learn/courses/30/lessons/12913" xr:uid="{D12CF160-7876-4F91-B785-3C269A6FAF18}"/>
+    <hyperlink ref="C68" r:id="rId67" display="https://school.programmers.co.kr/learn/courses/30/lessons/42897" xr:uid="{476535F3-2283-4600-83DE-031E727C1AE5}"/>
+    <hyperlink ref="C69" r:id="rId68" display="https://school.programmers.co.kr/learn/courses/30/lessons/12905" xr:uid="{D01402AA-0F07-494E-89F7-9EFC6633DEB4}"/>
+    <hyperlink ref="C70" r:id="rId69" display="https://school.programmers.co.kr/learn/courses/30/lessons/12983" xr:uid="{F6E11A46-F281-4E24-B487-F0F3303966C9}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="landscape" r:id="rId58"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId70"/>
 </worksheet>
 </file>
--- a/Cote기록.xlsx
+++ b/Cote기록.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Heetae\source\repos\Cote\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC090D10-6CC0-4D63-B308-C8E795D4683E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3A689B3-D82B-4388-AAD3-3E9137CEB058}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{D201B5D2-2DDF-4A7B-B11F-7425E7B6E507}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="137">
   <si>
     <t>날짜</t>
     <phoneticPr fontId="7" type="noConversion"/>
@@ -727,6 +727,67 @@
   </si>
   <si>
     <t>단어 퍼즐</t>
+  </si>
+  <si>
+    <t>예산</t>
+  </si>
+  <si>
+    <t>구명보트</t>
+  </si>
+  <si>
+    <t>그리디</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">백트래킹으로 했는데 11.. 보트에 최대 2명 탈 수밖에 없다 라는 글을 못봄.. 근데 다시 봐도, 이걸 공식없이 사람 머리로 생각해낼 수 있나. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>다시 풀어보자</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>기지국 설치</t>
+  </si>
+  <si>
+    <t>귤 고르기</t>
+  </si>
+  <si>
+    <t>미로 탈출 명령어</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">백트래킹 vs DP vs 그리디 선택을 묻는 문제인데, 이 셋 중 하나를 고르는 게 매우 까다로움을 알려준 문제. 맨해튼거리 에서 홀수 판별도 배움. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>다시 풀어보자</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>택배 배달과 수거하기</t>
+  </si>
+  <si>
+    <t>그리디?</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>개인정보 수집 유효기간</t>
   </si>
 </sst>
 </file>
@@ -1235,11 +1296,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3558EF3-1756-4B11-A588-6324C788ED8F}">
-  <dimension ref="A1:I70"/>
+  <dimension ref="A1:I77"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I71" sqref="I71"/>
+      <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F77" sqref="F77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -2917,6 +2978,167 @@
       </c>
       <c r="H70" s="8" t="s">
         <v>34</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A71" s="1">
+        <v>45965</v>
+      </c>
+      <c r="B71" s="8">
+        <v>1</v>
+      </c>
+      <c r="C71" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="D71" s="2">
+        <v>0.77</v>
+      </c>
+      <c r="E71" s="2">
+        <v>1</v>
+      </c>
+      <c r="F71" s="12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A72" s="1">
+        <v>45965</v>
+      </c>
+      <c r="B72" s="8">
+        <v>2</v>
+      </c>
+      <c r="C72" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="D72" s="2">
+        <v>0.72</v>
+      </c>
+      <c r="E72" s="2">
+        <v>0.11</v>
+      </c>
+      <c r="F72" s="12">
+        <v>40</v>
+      </c>
+      <c r="H72" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="I72" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A73" s="1">
+        <v>45965</v>
+      </c>
+      <c r="B73" s="8">
+        <v>3</v>
+      </c>
+      <c r="C73" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="D73" s="2">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="E73" s="2">
+        <v>0.7</v>
+      </c>
+      <c r="F73" s="12">
+        <v>10</v>
+      </c>
+      <c r="H73" s="8" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A74" s="1">
+        <v>45965</v>
+      </c>
+      <c r="B74" s="8">
+        <v>2</v>
+      </c>
+      <c r="C74" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="D74" s="2">
+        <v>0.72</v>
+      </c>
+      <c r="E74" s="2">
+        <v>1</v>
+      </c>
+      <c r="F74" s="12">
+        <v>10</v>
+      </c>
+      <c r="H74" s="8" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A75" s="1">
+        <v>45966</v>
+      </c>
+      <c r="B75" s="8">
+        <v>3</v>
+      </c>
+      <c r="C75" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="D75" s="2">
+        <v>0.39</v>
+      </c>
+      <c r="E75" s="2">
+        <v>0.16</v>
+      </c>
+      <c r="F75" s="12">
+        <v>90</v>
+      </c>
+      <c r="H75" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="I75" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A76" s="1">
+        <v>45966</v>
+      </c>
+      <c r="B76" s="8">
+        <v>2</v>
+      </c>
+      <c r="C76" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="D76" s="2">
+        <v>0.37</v>
+      </c>
+      <c r="E76" s="2">
+        <v>1</v>
+      </c>
+      <c r="F76" s="12">
+        <v>30</v>
+      </c>
+      <c r="H76" s="8" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A77" s="1">
+        <v>45966</v>
+      </c>
+      <c r="B77" s="8">
+        <v>1</v>
+      </c>
+      <c r="C77" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="D77" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="E77" s="2">
+        <v>1</v>
+      </c>
+      <c r="F77" s="12">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -2991,8 +3213,15 @@
     <hyperlink ref="C68" r:id="rId67" display="https://school.programmers.co.kr/learn/courses/30/lessons/42897" xr:uid="{476535F3-2283-4600-83DE-031E727C1AE5}"/>
     <hyperlink ref="C69" r:id="rId68" display="https://school.programmers.co.kr/learn/courses/30/lessons/12905" xr:uid="{D01402AA-0F07-494E-89F7-9EFC6633DEB4}"/>
     <hyperlink ref="C70" r:id="rId69" display="https://school.programmers.co.kr/learn/courses/30/lessons/12983" xr:uid="{F6E11A46-F281-4E24-B487-F0F3303966C9}"/>
+    <hyperlink ref="C71" r:id="rId70" display="https://school.programmers.co.kr/learn/courses/30/lessons/12982" xr:uid="{72B5EDB5-5A39-4A21-B7C1-BC66F2420D40}"/>
+    <hyperlink ref="C72" r:id="rId71" display="https://school.programmers.co.kr/learn/courses/30/lessons/42885" xr:uid="{626D1337-4456-4B23-BDAA-4CC848A887AA}"/>
+    <hyperlink ref="C73" r:id="rId72" display="https://school.programmers.co.kr/learn/courses/30/lessons/12979" xr:uid="{2C4B9A90-7FC6-44A9-84B9-4DC0DEDC4E66}"/>
+    <hyperlink ref="C74" r:id="rId73" display="https://school.programmers.co.kr/learn/courses/30/lessons/138476" xr:uid="{A4181752-3077-4422-942A-43DED4AD9B2D}"/>
+    <hyperlink ref="C75" r:id="rId74" display="https://school.programmers.co.kr/learn/courses/30/lessons/150365" xr:uid="{F387C241-92EF-4FF8-B17C-ACADA12B38AA}"/>
+    <hyperlink ref="C76" r:id="rId75" display="https://school.programmers.co.kr/learn/courses/30/lessons/150369" xr:uid="{41810487-AB9D-41D5-9C8C-AD36DAD7B9E4}"/>
+    <hyperlink ref="C77" r:id="rId76" display="https://school.programmers.co.kr/learn/courses/30/lessons/150370" xr:uid="{7D1EB7F0-DACC-4764-9535-B94AB9F0E6F6}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="landscape" r:id="rId70"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId77"/>
 </worksheet>
 </file>
--- a/Cote기록.xlsx
+++ b/Cote기록.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Heetae\source\repos\Cote\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3A689B3-D82B-4388-AAD3-3E9137CEB058}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{211A4F0B-D56F-4D73-B103-115A08A6C09E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{D201B5D2-2DDF-4A7B-B11F-7425E7B6E507}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="145">
   <si>
     <t>날짜</t>
     <phoneticPr fontId="7" type="noConversion"/>
@@ -788,6 +788,46 @@
   </si>
   <si>
     <t>개인정보 수집 유효기간</t>
+  </si>
+  <si>
+    <t>도넛과 막대 그래프</t>
+  </si>
+  <si>
+    <t>110 옮기기</t>
+  </si>
+  <si>
+    <t>쿼드압축 후 개수 세기</t>
+  </si>
+  <si>
+    <t>없는 숫자 더하기</t>
+  </si>
+  <si>
+    <t>기타</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">문자열 폭발? 알고리즘을 모른다면, 풀기 매우 어렵다 (알고리즘 사용이 협소하기에, 외울지 고민되긴 함) . 유사한 문제로, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>문자열 폭발 (백준 9935) 를 풀어보자</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>분할정복</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>다시 풀어보자</t>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1296,11 +1336,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3558EF3-1756-4B11-A588-6324C788ED8F}">
-  <dimension ref="A1:I77"/>
+  <dimension ref="A1:I81"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F77" sqref="F77"/>
+      <pane ySplit="1" topLeftCell="A65" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I87" sqref="I87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -3139,6 +3179,98 @@
       </c>
       <c r="F77" s="12">
         <v>20</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A78" s="1">
+        <v>45966</v>
+      </c>
+      <c r="B78" s="8">
+        <v>2</v>
+      </c>
+      <c r="C78" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="D78" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="E78" s="2">
+        <v>0.47</v>
+      </c>
+      <c r="F78" s="12">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A79" s="1">
+        <v>45967</v>
+      </c>
+      <c r="B79" s="8">
+        <v>3</v>
+      </c>
+      <c r="C79" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="D79" s="2">
+        <v>0.35</v>
+      </c>
+      <c r="E79" s="2">
+        <v>0</v>
+      </c>
+      <c r="F79" s="12">
+        <v>110</v>
+      </c>
+      <c r="H79" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="I79" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A80" s="1">
+        <v>45967</v>
+      </c>
+      <c r="B80" s="8">
+        <v>2</v>
+      </c>
+      <c r="C80" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="D80" s="2">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="E80" s="2">
+        <v>0.93799999999999994</v>
+      </c>
+      <c r="F80" s="12">
+        <v>40</v>
+      </c>
+      <c r="H80" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="I80" s="17" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A81" s="1">
+        <v>45967</v>
+      </c>
+      <c r="B81" s="8">
+        <v>1</v>
+      </c>
+      <c r="C81" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="D81" s="2">
+        <v>0.82</v>
+      </c>
+      <c r="E81" s="2">
+        <v>1</v>
+      </c>
+      <c r="F81" s="12">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -3220,8 +3352,12 @@
     <hyperlink ref="C75" r:id="rId74" display="https://school.programmers.co.kr/learn/courses/30/lessons/150365" xr:uid="{F387C241-92EF-4FF8-B17C-ACADA12B38AA}"/>
     <hyperlink ref="C76" r:id="rId75" display="https://school.programmers.co.kr/learn/courses/30/lessons/150369" xr:uid="{41810487-AB9D-41D5-9C8C-AD36DAD7B9E4}"/>
     <hyperlink ref="C77" r:id="rId76" display="https://school.programmers.co.kr/learn/courses/30/lessons/150370" xr:uid="{7D1EB7F0-DACC-4764-9535-B94AB9F0E6F6}"/>
+    <hyperlink ref="C78" r:id="rId77" display="https://school.programmers.co.kr/learn/courses/30/lessons/258711" xr:uid="{09C05B28-0D85-42A3-9598-C0E315CF0184}"/>
+    <hyperlink ref="C79" r:id="rId78" display="https://school.programmers.co.kr/learn/courses/30/lessons/77886" xr:uid="{6CB6E310-B6E3-4134-A1D7-4F908736771E}"/>
+    <hyperlink ref="C80" r:id="rId79" display="https://school.programmers.co.kr/learn/courses/30/lessons/68936" xr:uid="{6DA507D2-C6F9-4825-A859-60E1D3E6F1AA}"/>
+    <hyperlink ref="C81" r:id="rId80" display="https://school.programmers.co.kr/learn/courses/30/lessons/86051" xr:uid="{AC0F15DD-B83E-4093-8271-1B59CA94EDCB}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="landscape" r:id="rId77"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId81"/>
 </worksheet>
 </file>
--- a/Cote기록.xlsx
+++ b/Cote기록.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Heetae\source\repos\Cote\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{211A4F0B-D56F-4D73-B103-115A08A6C09E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD3223FB-1538-4E8B-914B-AED42D422238}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{D201B5D2-2DDF-4A7B-B11F-7425E7B6E507}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="154">
   <si>
     <t>날짜</t>
     <phoneticPr fontId="7" type="noConversion"/>
@@ -828,6 +828,48 @@
   <si>
     <t>다시 풀어보자</t>
     <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>불량 사용자</t>
+  </si>
+  <si>
+    <t>k진수에서 소수 개수 구하기</t>
+  </si>
+  <si>
+    <t>거리두기 확인하기</t>
+  </si>
+  <si>
+    <t>코딩 테스트 공부</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">백트 vs DP 고민하다 백트하고 0나오고 딴문제 넘어갔었는데.. 아쉽다.. 전형적인 DP였는데.. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>다시 풀어보자</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>두 큐 합 같게 만들기</t>
+  </si>
+  <si>
+    <t>큐</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>큐의 특성을 알아야 풀 수 있는 문제인데.. 이게 어떻게 57%지.. 조합 놓고 하면 못풀고, sum 비교를 해야하는 건데, 이걸 아무 정보 없이 알 수 있나? 신기하네..</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>숫자 게임</t>
   </si>
 </sst>
 </file>
@@ -1336,11 +1378,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3558EF3-1756-4B11-A588-6324C788ED8F}">
-  <dimension ref="A1:I81"/>
+  <dimension ref="A1:I87"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A65" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I87" sqref="I87"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F88" sqref="F88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -3253,7 +3295,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A81" s="1">
         <v>45967</v>
       </c>
@@ -3271,6 +3313,147 @@
       </c>
       <c r="F81" s="12">
         <v>5</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A82" s="1">
+        <v>45968</v>
+      </c>
+      <c r="B82" s="8">
+        <v>3</v>
+      </c>
+      <c r="C82" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="D82" s="2">
+        <v>0.52</v>
+      </c>
+      <c r="E82" s="2">
+        <v>0.63600000000000001</v>
+      </c>
+      <c r="F82" s="12">
+        <v>77</v>
+      </c>
+      <c r="H82" s="8" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A83" s="1">
+        <v>45968</v>
+      </c>
+      <c r="B83" s="8">
+        <v>2</v>
+      </c>
+      <c r="C83" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="D83" s="2">
+        <v>0.63</v>
+      </c>
+      <c r="E83" s="2">
+        <v>0.88100000000000001</v>
+      </c>
+      <c r="F83" s="12">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A84" s="1">
+        <v>45968</v>
+      </c>
+      <c r="B84" s="8">
+        <v>2</v>
+      </c>
+      <c r="C84" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="D84" s="2">
+        <v>0.48</v>
+      </c>
+      <c r="E84" s="2">
+        <v>1</v>
+      </c>
+      <c r="F84" s="12">
+        <v>32</v>
+      </c>
+      <c r="H84" s="8" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A85" s="1">
+        <v>45969</v>
+      </c>
+      <c r="B85" s="8">
+        <v>3</v>
+      </c>
+      <c r="C85" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="D85" s="2">
+        <v>0.27</v>
+      </c>
+      <c r="E85" s="2">
+        <v>0</v>
+      </c>
+      <c r="F85" s="12">
+        <v>45</v>
+      </c>
+      <c r="H85" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="I85" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A86" s="1">
+        <v>45969</v>
+      </c>
+      <c r="B86" s="8">
+        <v>2</v>
+      </c>
+      <c r="C86" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="D86" s="2">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="E86" s="2">
+        <v>0</v>
+      </c>
+      <c r="F86" s="12">
+        <v>120</v>
+      </c>
+      <c r="H86" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="I86" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A87" s="1">
+        <v>45969</v>
+      </c>
+      <c r="B87" s="8">
+        <v>3</v>
+      </c>
+      <c r="C87" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="D87" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="E87" s="2">
+        <v>1</v>
+      </c>
+      <c r="F87" s="12">
+        <v>28</v>
+      </c>
+      <c r="H87" s="8" t="s">
+        <v>128</v>
       </c>
     </row>
   </sheetData>
@@ -3356,8 +3539,14 @@
     <hyperlink ref="C79" r:id="rId78" display="https://school.programmers.co.kr/learn/courses/30/lessons/77886" xr:uid="{6CB6E310-B6E3-4134-A1D7-4F908736771E}"/>
     <hyperlink ref="C80" r:id="rId79" display="https://school.programmers.co.kr/learn/courses/30/lessons/68936" xr:uid="{6DA507D2-C6F9-4825-A859-60E1D3E6F1AA}"/>
     <hyperlink ref="C81" r:id="rId80" display="https://school.programmers.co.kr/learn/courses/30/lessons/86051" xr:uid="{AC0F15DD-B83E-4093-8271-1B59CA94EDCB}"/>
+    <hyperlink ref="C82" r:id="rId81" display="https://school.programmers.co.kr/learn/courses/30/lessons/64064" xr:uid="{3A42B143-DC7F-4A7E-A466-63EB74A1AF76}"/>
+    <hyperlink ref="C83" r:id="rId82" display="https://school.programmers.co.kr/learn/courses/30/lessons/92335" xr:uid="{68D81300-9380-428D-841A-EAFC4C7913D1}"/>
+    <hyperlink ref="C84" r:id="rId83" display="https://school.programmers.co.kr/learn/courses/30/lessons/81302" xr:uid="{4E6ABD6F-73D1-4D89-87BF-DBAC5D224119}"/>
+    <hyperlink ref="C85" r:id="rId84" display="https://school.programmers.co.kr/learn/courses/30/lessons/118668" xr:uid="{118B748E-890A-48C8-BD35-96E1E40C394C}"/>
+    <hyperlink ref="C86" r:id="rId85" display="https://school.programmers.co.kr/learn/courses/30/lessons/118667" xr:uid="{BF3F2388-23E2-4345-8C54-48049FA987E6}"/>
+    <hyperlink ref="C87" r:id="rId86" display="https://school.programmers.co.kr/learn/courses/30/lessons/12987" xr:uid="{20763C57-D061-4088-AAC7-7895822C921B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="landscape" r:id="rId81"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId87"/>
 </worksheet>
 </file>